--- a/pj_creator_2/res/xlsx/traits_keys.xlsx
+++ b/pj_creator_2/res/xlsx/traits_keys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4740"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>keys</t>
   </si>
@@ -44,12 +44,6 @@
     <t>extroversion</t>
   </si>
   <si>
-    <t>positivity</t>
-  </si>
-  <si>
-    <t>positividad</t>
-  </si>
-  <si>
     <t>serenity</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>conocimiento</t>
   </si>
   <si>
-    <t>resistance</t>
-  </si>
-  <si>
-    <t>resistencia</t>
-  </si>
-  <si>
     <t>loyalty</t>
   </si>
   <si>
@@ -156,12 +144,6 @@
   </si>
   <si>
     <t>intimidad</t>
-  </si>
-  <si>
-    <t>indulgence</t>
-  </si>
-  <si>
-    <t>indulgencia</t>
   </si>
   <si>
     <t>adaptability</t>
@@ -817,9 +799,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6666666666667" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1152,46 +1133,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1199,10 +1180,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1210,10 +1191,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1221,10 +1202,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1232,10 +1213,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1243,10 +1224,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1254,10 +1235,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1265,10 +1246,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1276,10 +1257,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1287,10 +1268,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1298,10 +1279,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1309,10 +1290,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1320,10 +1301,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1331,10 +1312,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1342,10 +1323,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1353,10 +1334,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1364,10 +1345,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1375,10 +1356,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1386,10 +1367,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1397,10 +1378,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1408,10 +1389,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1419,47 +1400,14 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
